--- a/STU SubWorkflows/SupplierChanges.xlsx
+++ b/STU SubWorkflows/SupplierChanges.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alpak\Documents\UiPath\RPA-Patterns\splitting-things-up\STU StatusQuo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alpak\Documents\UiPath\RPA-Patterns\splitting-things-up\STU SubWorkflows\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CD8B678-22B2-4A13-83D8-8FA2A50ACA3A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F25F03A-870A-4379-B287-CFDDE17EF3BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{29BBA26A-78A3-4E95-9613-956850FC568C}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Description</t>
   </si>
@@ -91,6 +91,9 @@
   </si>
   <si>
     <t>England</t>
+  </si>
+  <si>
+    <t>2020-10-15</t>
   </si>
 </sst>
 </file>
@@ -129,14 +132,23 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="4">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -159,14 +171,14 @@
     <tableColumn id="2" xr3:uid="{BE996DA5-E6A5-42B6-B832-36C21755F05C}" name="External Name"/>
     <tableColumn id="3" xr3:uid="{9D980FE7-6645-467D-A37D-B8D0CBC72E1F}" name="Description"/>
     <tableColumn id="4" xr3:uid="{BDAE949D-FEBB-4B66-A428-8FA3ECA059A5}" name="Industry"/>
-    <tableColumn id="5" xr3:uid="{36798132-2C27-4601-81A2-598020AC8957}" name="No. Employees"/>
-    <tableColumn id="6" xr3:uid="{CF5959EE-1F9E-4893-BEB3-9C4918A13205}" name="Recurrent Supplier" dataDxfId="0"/>
-    <tableColumn id="7" xr3:uid="{95138F94-500F-4811-A80B-37285CEF737D}" name="Date"/>
+    <tableColumn id="5" xr3:uid="{36798132-2C27-4601-81A2-598020AC8957}" name="No. Employees" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{CF5959EE-1F9E-4893-BEB3-9C4918A13205}" name="Recurrent Supplier" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{95138F94-500F-4811-A80B-37285CEF737D}" name="Date" dataDxfId="0"/>
     <tableColumn id="8" xr3:uid="{C0C9DAE7-A2FF-4F3D-9CAC-2E8685CD8738}" name="Address"/>
     <tableColumn id="9" xr3:uid="{D634AE3B-2109-4125-B0EA-02E2C14DDF61}" name="Address 2"/>
     <tableColumn id="10" xr3:uid="{BFF82EA9-AA75-4BB9-B62A-F07B8FC50E10}" name="City"/>
     <tableColumn id="11" xr3:uid="{8F864706-99D0-4043-8B42-C44B27E7138D}" name="State"/>
-    <tableColumn id="12" xr3:uid="{899DDBD4-32E5-4A80-BBA7-A0D4A12428BA}" name="Zip"/>
+    <tableColumn id="12" xr3:uid="{899DDBD4-32E5-4A80-BBA7-A0D4A12428BA}" name="Zip" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -472,7 +484,7 @@
   <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -504,7 +516,7 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F1" t="s">
@@ -542,14 +554,14 @@
       <c r="D2" t="s">
         <v>20</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="2">
         <v>7</v>
       </c>
       <c r="F2" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="G2" s="2">
-        <v>44119</v>
+      <c r="G2" s="2" t="s">
+        <v>22</v>
       </c>
       <c r="H2" t="s">
         <v>15</v>
@@ -563,7 +575,7 @@
       <c r="K2" t="s">
         <v>21</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="2">
         <v>123456</v>
       </c>
     </row>
@@ -574,9 +586,12 @@
       <c r="B3" t="s">
         <v>18</v>
       </c>
+      <c r="E3" s="2"/>
       <c r="F3" s="1" t="b">
         <v>0</v>
       </c>
+      <c r="G3" s="2"/>
+      <c r="L3" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
